--- a/data/trans_dic/P26-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P26-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P26-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P26-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,97%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>27,43; 39,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>28,09; 40,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>13,42; 24,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>35,96; 49,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>33,48; 45,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>17,52; 26,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>33,83; 42,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>32,51; 41,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>16,7; 23,87</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,01%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>21,6; 30,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>28,35; 37,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>19,11; 27,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>5,81; 14,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>29,59; 37,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>36,81; 45,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>28,75; 37,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,0; 15,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>26,32; 32,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>33,71; 39,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>25,25; 30,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,72; 13,8</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>22,34; 32,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>30,81; 41,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>14,31; 22,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>4,17; 9,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>32,77; 43,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>30,5; 42,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>9,61; 17,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>12,08; 19,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>28,98; 36,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>31,67; 39,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>13,1; 18,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>9,18; 13,58</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,07%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>24,05; 33,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>29,47; 37,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>24,49; 34,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>9,35; 21,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>36,84; 47,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>31,04; 38,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>24,4; 34,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>9,19; 16,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>31,94; 39,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>31,59; 36,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>25,43; 32,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>10,02; 16,48</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,62%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>22,33; 36,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>26,83; 40,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>22,07; 34,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>2,05; 9,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>23,71; 37,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>34,14; 47,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>17,04; 28,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>4,48; 9,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>24,66; 33,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>32,2; 41,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>20,71; 28,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,87; 7,88</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,47%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>22,5; 33,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>24,6; 36,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>18,49; 29,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>7,73; 15,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>33,58; 46,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>37,26; 50,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>23,74; 36,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>8,56; 16,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>29,62; 38,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>32,5; 41,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>23,12; 30,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>9,16; 14,32</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,43%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,86%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>26,88; 34,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>30,35; 38,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>23,4; 31,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>16,14; 23,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>34,4; 42,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>38,46; 46,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>26,72; 33,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>12,65; 24,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>31,68; 37,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>35,33; 41,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>26,06; 31,36</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>14,73; 22,79</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>25,26; 32,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>28,03; 35,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>20,24; 26,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,21; 34,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>31,34; 38,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>33,1; 40,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>17,58; 23,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,58; 8,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>29,19; 33,85</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>31,64; 36,41</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>19,92; 24,03</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,58; 22,29</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,84%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>26,83; 30,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,09; 34,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,72; 26,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,53; 17,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>35,5; 38,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,99; 40,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,24; 28,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>11,75; 14,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>31,74; 34,04</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>34,57; 37,03</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,93; 27,11</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>11,87; 15,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P26-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P26-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>20,65%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,99; 45,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,42; 24,41</t>
+          <t>13,66; 26,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,27; 49,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,52; 26,6</t>
+          <t>17,84; 28,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,09; 44,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,7; 23,87</t>
+          <t>17,02; 25,03</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>11,31%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 14,12</t>
+          <t>6,22; 15,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 15,98</t>
+          <t>10,02; 15,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 13,8</t>
+          <t>8,88; 14,56</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,27%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,69</t>
+          <t>4,09; 9,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,08; 19,04</t>
+          <t>12,12; 19,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,58</t>
+          <t>9,06; 13,44</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,47; 37,34</t>
+          <t>24,09; 34,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,35; 21,54</t>
+          <t>9,29; 22,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,04; 38,82</t>
+          <t>25,06; 34,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 16,72</t>
+          <t>5,76; 14,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,59; 36,99</t>
+          <t>26,05; 33,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 16,48</t>
+          <t>7,61; 15,39</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 9,67</t>
+          <t>2,01; 9,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 9,37</t>
+          <t>4,55; 9,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,88</t>
+          <t>3,89; 7,79</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 15,33</t>
+          <t>7,71; 15,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,56; 16,01</t>
+          <t>8,51; 15,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,32</t>
+          <t>9,07; 14,28</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>18,4%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,14; 23,63</t>
+          <t>15,99; 23,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,65; 24,72</t>
+          <t>8,43; 24,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,73; 22,79</t>
+          <t>11,59; 22,28</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>21,53%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,21; 34,66</t>
+          <t>5,17; 72,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,04</t>
+          <t>4,56; 7,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,58; 22,29</t>
+          <t>5,58; 56,33</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>15,6%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,53; 17,74</t>
+          <t>11,07; 37,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,75; 14,53</t>
+          <t>10,36; 14,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,87; 15,63</t>
+          <t>11,96; 27,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P26-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P26-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,43; 39,63</t>
+          <t>27,6; 39,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,99; 45,16</t>
+          <t>32,68; 44,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,09; 40,48</t>
+          <t>28,46; 41,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,66; 26,0</t>
+          <t>13,59; 26,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,96; 49,76</t>
+          <t>36,35; 49,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,27; 49,15</t>
+          <t>36,15; 48,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,48; 45,19</t>
+          <t>33,15; 45,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,84; 28,68</t>
+          <t>18,23; 28,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,83; 42,49</t>
+          <t>33,81; 42,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,09; 44,79</t>
+          <t>35,7; 44,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,51; 41,11</t>
+          <t>31,83; 41,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 25,03</t>
+          <t>16,87; 24,69</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,6; 30,17</t>
+          <t>21,16; 29,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,35; 37,37</t>
+          <t>27,82; 37,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,11; 27,1</t>
+          <t>19,55; 27,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 15,56</t>
+          <t>5,98; 15,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,59; 37,65</t>
+          <t>29,05; 38,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,81; 45,93</t>
+          <t>36,35; 45,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,75; 37,49</t>
+          <t>28,52; 36,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,95</t>
+          <t>10,39; 15,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,32; 32,51</t>
+          <t>26,32; 32,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,71; 39,98</t>
+          <t>33,77; 40,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,25; 30,9</t>
+          <t>25,26; 31,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 14,56</t>
+          <t>8,9; 14,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,34; 32,23</t>
+          <t>21,95; 32,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,81; 41,15</t>
+          <t>30,55; 41,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,31; 22,34</t>
+          <t>13,99; 22,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,54</t>
+          <t>4,47; 9,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,77; 43,79</t>
+          <t>33,2; 43,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,5; 42,13</t>
+          <t>29,9; 41,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 17,66</t>
+          <t>10,11; 17,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 19,13</t>
+          <t>12,11; 19,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,98; 36,69</t>
+          <t>29,26; 36,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,67; 39,84</t>
+          <t>31,89; 39,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,1; 18,75</t>
+          <t>12,77; 18,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 13,44</t>
+          <t>9,12; 13,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,05; 33,02</t>
+          <t>24,1; 33,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,09; 34,2</t>
+          <t>23,87; 35,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,49; 34,62</t>
+          <t>23,93; 34,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 22,26</t>
+          <t>9,68; 22,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,84; 47,16</t>
+          <t>36,64; 47,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,06; 34,56</t>
+          <t>24,41; 33,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,4; 34,32</t>
+          <t>24,13; 34,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 14,23</t>
+          <t>5,23; 13,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,94; 39,21</t>
+          <t>31,76; 38,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 33,05</t>
+          <t>26,15; 32,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,43; 32,5</t>
+          <t>25,06; 32,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,39</t>
+          <t>7,92; 14,84</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,33; 36,05</t>
+          <t>21,87; 35,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,83; 40,36</t>
+          <t>26,13; 39,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,07; 34,36</t>
+          <t>21,17; 33,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,35</t>
+          <t>1,92; 8,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,71; 37,54</t>
+          <t>23,82; 37,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,14; 47,5</t>
+          <t>33,63; 46,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,04; 28,01</t>
+          <t>17,15; 27,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,42</t>
+          <t>4,38; 9,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,66; 33,88</t>
+          <t>24,34; 34,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32,2; 41,65</t>
+          <t>31,93; 41,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,71; 28,97</t>
+          <t>20,14; 28,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,79</t>
+          <t>3,89; 7,89</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,5; 33,9</t>
+          <t>22,89; 34,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,6; 36,07</t>
+          <t>24,79; 36,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,49; 29,37</t>
+          <t>18,73; 29,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,45</t>
+          <t>7,58; 15,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,58; 46,07</t>
+          <t>33,85; 46,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,26; 50,18</t>
+          <t>37,39; 50,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,74; 36,11</t>
+          <t>24,39; 36,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,89</t>
+          <t>8,58; 15,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,62; 38,23</t>
+          <t>29,73; 38,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>32,5; 41,01</t>
+          <t>32,57; 41,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23,12; 30,91</t>
+          <t>23,1; 30,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,07; 14,28</t>
+          <t>9,17; 14,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,88; 34,92</t>
+          <t>26,56; 34,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,35; 38,29</t>
+          <t>30,2; 38,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,4; 31,37</t>
+          <t>23,32; 30,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,99; 23,73</t>
+          <t>15,5; 23,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,4; 42,51</t>
+          <t>34,42; 42,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,46; 46,96</t>
+          <t>38,17; 46,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,72; 33,93</t>
+          <t>26,74; 34,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,43; 24,67</t>
+          <t>8,17; 24,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,68; 37,18</t>
+          <t>31,63; 37,42</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>35,33; 41,25</t>
+          <t>35,4; 40,88</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26,06; 31,36</t>
+          <t>25,79; 31,3</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,59; 22,28</t>
+          <t>11,84; 22,43</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,26; 32,13</t>
+          <t>24,75; 31,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,03; 35,37</t>
+          <t>27,99; 34,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,24; 26,64</t>
+          <t>20,08; 26,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,17; 72,81</t>
+          <t>5,4; 67,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,34; 38,38</t>
+          <t>30,81; 38,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,1; 40,4</t>
+          <t>32,98; 39,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,58; 23,8</t>
+          <t>17,91; 23,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,56; 7,87</t>
+          <t>4,58; 8,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,19; 33,85</t>
+          <t>29,36; 34,19</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31,64; 36,41</t>
+          <t>31,5; 36,52</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19,92; 24,03</t>
+          <t>19,76; 24,16</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,58; 56,33</t>
+          <t>5,5; 49,63</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>26,83; 30,27</t>
+          <t>26,86; 30,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>31,09; 34,49</t>
+          <t>31,4; 34,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>23,72; 26,83</t>
+          <t>23,62; 26,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,07; 37,75</t>
+          <t>11,44; 38,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>35,5; 38,85</t>
+          <t>35,32; 38,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>36,99; 40,46</t>
+          <t>37,15; 40,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25,24; 28,25</t>
+          <t>25,12; 28,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,36; 14,4</t>
+          <t>10,37; 14,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>31,74; 34,04</t>
+          <t>31,63; 34,08</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>34,57; 37,03</t>
+          <t>34,64; 37,1</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>24,93; 27,11</t>
+          <t>24,86; 27,16</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,96; 27,07</t>
+          <t>11,95; 26,66</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tienen algún familiar que fuma habitualmente en casa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>81674</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>108559</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>89678</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>50887</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>98464</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>117541</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>101948</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>56707</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>180139</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>226100</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>191625</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>107594</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>67244; 97201</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>91793; 125949</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>74657; 107572</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36480; 71615</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>84049; 114373</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100191; 135621</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>86658; 118226</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46046; 73204</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>160518; 203854</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>199245; 249956</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>166735; 215607</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>87894; 128624</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>118825</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>160729</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>114319</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48720</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>155395</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>210549</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>167609</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60527</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>274220</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>371278</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>281928</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>109247</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>98962; 137435</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>137224; 182526</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>96536; 134522</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29244; 75400</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>134353; 177316</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>185748; 231157</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>145188; 187817</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>49521; 75437</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>244897; 302913</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>339110; 401947</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>253278; 312114</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>85933; 136807</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>80916</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>108020</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>55690</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19681</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>116415</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>110393</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>42513</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>50139</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>197331</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>218412</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>98203</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>69820</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>65512; 96471</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92742; 124485</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>43040; 69952</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13254; 29257</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>101208; 133768</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>91604; 128057</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32199; 55812</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39122; 63486</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>176495; 219735</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>194495; 243257</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>79961; 116293</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>56499; 86368</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>97202</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>106745</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>97228</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>38153</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>142967</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>111483</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>102285</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40046</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>240169</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>218228</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>199514</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>78199</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>81763; 114270</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>87501; 128312</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>81097; 116554</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25151; 57313</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>124296; 160029</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>92140; 128004</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>84682; 119864</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21829; 56323</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>215481; 264490</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>194566; 244662</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>172857; 223473</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53643; 100467</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>50715</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>70287</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>53202</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7049</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>56931</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>86390</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>45433</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13024</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>107646</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>156676</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>98635</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20073</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>39197; 63516</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>55551; 84674</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>41144; 65275</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3160; 14493</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>44655; 70193</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>72367; 100703</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>35738; 57779</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8762; 18348</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>89255; 125046</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>136582; 178826</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>81122; 114875</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14179; 28769</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>70611</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>77819</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>57067</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>27453</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>97994</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>110962</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>73474</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29405</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>168605</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>188781</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>130541</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>56858</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>57413; 85957</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>63818; 93828</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>44996; 71269</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>18913; 37918</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>83923; 114862</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>95029; 127080</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>60233; 88987</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21285; 38875</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>148293; 189964</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>166634; 210579</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>112527; 150273</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>45655; 72310</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>175532</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>208070</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>159070</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>113730</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>225911</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>262585</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>185891</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>145531</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>401443</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>470655</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>344961</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>259260</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>153231; 197271</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>183673; 232890</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>137510; 181655</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>91002; 139127</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>202339; 247219</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>237054; 288626</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>164194; 212034</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>67132; 201991</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>368505; 435949</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>435152; 502425</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>310456; 376738</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>166761; 316094</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>198410</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>238554</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>168533</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>280587</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>252752</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>292553</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>159097</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>38013</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>451161</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>531107</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>327630</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>318599</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>172163; 221507</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>212120; 263196</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>145428; 192113</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>46153; 576702</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>225287; 280136</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>263993; 318706</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>138616; 183929</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>28608; 50315</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>419005; 487861</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>490855; 569108</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>296013; 361919</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>81341; 734377</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>873885</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1078781</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>794787</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>586260</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1146829</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1302456</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>878250</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>433391</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2020714</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2381237</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1673037</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1019650</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>819766; 919521</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1030129; 1135805</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>744248; 846071</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>362671; 1220357</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1092109; 1200621</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1249274; 1358923</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>824932; 925972</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>348927; 481007</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1943595; 2094258</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2301312; 2464960</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1599733; 1747684</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>781055; 1741870</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>